--- a/docs/templates/banff_template.xlsx
+++ b/docs/templates/banff_template.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,225 +390,235 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>xm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>abo_i</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>adequacy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fixation_ff</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>fixation_paraffin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>fixation_elec</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>fixation_rna</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>microscopy</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>c4d_if</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>c4d_ihc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>dsa</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hist_dsa</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>i_score</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>t_score</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>v_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>g_score</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ptc_score</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ti_score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>cg_score</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>mm_score</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>cv_score</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ci_score</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>ct_score</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>ah_score</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>glomeruli</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>arteries</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>bk</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>gs</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>i_ifta_score</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>atma</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>ctma</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>atn</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>agn</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>cgn</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>infec</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>cni</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>ain</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>ptld</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>sptcbmml</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>leuscint</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>monofibneoint</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>newaif</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>othi_ifta</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>genetx</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>hist_aamr</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>hist_camr</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>hist_tcmr</t>
         </is>
